--- a/data/trans_bre/P1804_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1804_2016_2023-Provincia-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>6.90394746504461</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.322513486733047</v>
+        <v>3.322513486733046</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.9409230247941166</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>2.537756272227896</v>
+        <v>2.537756272227894</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.565128608972044</v>
+        <v>1.83103408503013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.325314224131726</v>
+        <v>1.199845885264262</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.1556736554228431</v>
+        <v>0.1589201119637689</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.3143816946400848</v>
+        <v>0.31928118808624</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.88217207313528</v>
+        <v>12.55416776015143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.675890248368368</v>
+        <v>5.729716951064634</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.241384456697975</v>
+        <v>2.310866331672783</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9.413222161675064</v>
+        <v>10.51776325435526</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>1.947607954665304</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.582496408588843</v>
+        <v>1.582496408588842</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.4297571195936548</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4.392876221190117</v>
+        <v>4.392876221190115</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7031742264020878</v>
+        <v>-0.9708455224734732</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3769843520672521</v>
+        <v>0.3251995209580286</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.138155851230136</v>
+        <v>-0.1849209573536135</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
     </row>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.030991811465383</v>
+        <v>4.665916072584896</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.168717426113367</v>
+        <v>3.157659250202864</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.548764911429892</v>
+        <v>1.44375632655225</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
     </row>
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.261220988226435</v>
+        <v>-0.5902249569009893</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.387925854603348</v>
+        <v>1.320069216199888</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1359228270243492</v>
+        <v>-0.2636632675863305</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2088771782133785</v>
+        <v>0.2602485297822115</v>
       </c>
     </row>
     <row r="12">
@@ -753,16 +753,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.860589421170078</v>
+        <v>5.016589982944462</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.677759606854795</v>
+        <v>7.200572254024146</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>3.846967457198327</v>
+        <v>4.246177553759781</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.024007329270001</v>
+        <v>2.914693081268027</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         <v>8.059199659982417</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-0.2830607848064826</v>
+        <v>-0.283060784806477</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.3777725288478746</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.00824734679480851</v>
+        <v>-0.008247346794808348</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9500606163925108</v>
+        <v>1.991293513529609</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.950608094737353</v>
+        <v>-7.984323418431287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.0420548611919719</v>
+        <v>0.07744865021361129</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2028012636448595</v>
+        <v>-0.2050468768878277</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.62852331310528</v>
+        <v>14.79823944518442</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.510496702571273</v>
+        <v>7.993398048863856</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8063813589509817</v>
+        <v>0.8125477900902114</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2648559622239879</v>
+        <v>0.2741300799439394</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>1.867385101549211</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6760135973113973</v>
+        <v>0.6760135973113972</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.5989165651166424</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.6659145466091599</v>
+        <v>0.6659145466091598</v>
       </c>
     </row>
     <row r="17">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.715965054820549</v>
+        <v>-1.920592589722088</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.983397148338593</v>
+        <v>-1.007157589576183</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.5027947313696195</v>
+        <v>-0.5029464606423261</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.5821646462423149</v>
+        <v>-0.6731903999766781</v>
       </c>
     </row>
     <row r="18">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.80573530605257</v>
+        <v>5.694565532697422</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.141139204097112</v>
+        <v>2.081015821597891</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.313318793442658</v>
+        <v>4.158683320570073</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8.484299625972366</v>
+        <v>5.811050885417697</v>
       </c>
     </row>
     <row r="19">
@@ -908,7 +908,7 @@
         <v>2.617582077192726</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.402779899797258</v>
+        <v>3.402779899797254</v>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.5589669769666025</v>
+        <v>0.5589669769666018</v>
       </c>
     </row>
     <row r="20">
@@ -927,14 +927,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.064319904960948</v>
+        <v>1.070113094669241</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.3217153596890219</v>
+        <v>-0.5570071785721753</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.05811966696437745</v>
+        <v>-0.08557033085941385</v>
       </c>
     </row>
     <row r="21">
@@ -945,14 +945,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.22821442876555</v>
+        <v>5.110031961176011</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.091612510993853</v>
+        <v>7.260836335812988</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>1.594004286123426</v>
+        <v>1.658426451958594</v>
       </c>
     </row>
     <row r="22">
@@ -970,13 +970,13 @@
         <v>2.269062956680438</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.556959272769633</v>
+        <v>3.55695927276963</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.4726781095361447</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.6323171131724079</v>
+        <v>0.6323171131724072</v>
       </c>
     </row>
     <row r="23">
@@ -987,16 +987,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3451840759460864</v>
+        <v>-0.1598624063409281</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4300461423283693</v>
+        <v>0.7241407952565807</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.06545359554388917</v>
+        <v>-0.05925752994279895</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.01242132731520087</v>
+        <v>0.08992557467195868</v>
       </c>
     </row>
     <row r="24">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.721607544569</v>
+        <v>5.093110982486256</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.93238917848308</v>
+        <v>6.437214972398872</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>1.318456489727216</v>
+        <v>1.373205486796279</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.350256327019147</v>
+        <v>1.531182903151146</v>
       </c>
     </row>
     <row r="25">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.407487977387183</v>
+        <v>1.541587449085595</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.4286657228086916</v>
+        <v>-0.5345172519919457</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1812204011323969</v>
+        <v>0.2278129063070437</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2497403823176988</v>
+        <v>-0.2334967417004149</v>
       </c>
     </row>
     <row r="27">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.876686070999444</v>
+        <v>7.021604157367594</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.193776484137114</v>
+        <v>2.157440551546046</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.498239952574356</v>
+        <v>1.56198042926733</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.839788354620633</v>
+        <v>2.085608561430738</v>
       </c>
     </row>
     <row r="28">
@@ -1098,13 +1098,13 @@
         <v>3.632755820163215</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2.338949368482993</v>
+        <v>2.338949368482994</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>0.577044948382943</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.3780510255299203</v>
+        <v>0.3780510255299206</v>
       </c>
     </row>
     <row r="29">
@@ -1115,16 +1115,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.360596873602654</v>
+        <v>2.169968653069959</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.009312888989665</v>
+        <v>1.082597458688649</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.3210456711560931</v>
+        <v>0.3219667566001869</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.1511259074045423</v>
+        <v>0.1474890530914927</v>
       </c>
     </row>
     <row r="30">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.845197745025372</v>
+        <v>4.990007700283179</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.552627794391635</v>
+        <v>3.582702401123536</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.8399033454895636</v>
+        <v>0.8852818008788785</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.6554439327692426</v>
+        <v>0.6699329628820397</v>
       </c>
     </row>
     <row r="31">
